--- a/2024/SoundDesign/xls/ElephantDreamStructure.xlsx
+++ b/2024/SoundDesign/xls/ElephantDreamStructure.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sammy/DocTHU/2023THU/2023_1100前期/04水5_サウンドデザイン演習/2023_10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sammy/Github/sammyppr.github.io/2024/SoundDesign/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803D2BDC-5B3A-134E-AF1F-16E66CC357C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C59D63-41CE-1A4C-AA23-AB7F89E1E550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4600" yWindow="500" windowWidth="21600" windowHeight="14180" xr2:uid="{6B0A2586-2BB5-FA40-B7AE-E9631DB70ABB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Scene NO</t>
     <phoneticPr fontId="1"/>
@@ -168,14 +168,6 @@
   </si>
   <si>
     <t>シーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BGM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -211,12 +203,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -225,11 +232,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -250,9 +263,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -290,7 +303,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -396,7 +409,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -538,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,7 +562,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -560,291 +573,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>1.8055555555555557E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <f>D2-C2</f>
         <v>1.8055555555555557E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <f>D2</f>
         <v>1.8055555555555557E-2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E15" si="0">D3-C3</f>
         <v>3.0555555555555555E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:C15" si="1">D3</f>
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.10625</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>5.7638888888888885E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>0.10625</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0.15555555555555556</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>4.9305555555555561E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <f t="shared" si="1"/>
         <v>0.15555555555555556</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.20277777777777781</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>4.7222222222222249E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <f t="shared" si="1"/>
         <v>0.20277777777777781</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.24513888888888888</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>4.2361111111111072E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <f t="shared" si="1"/>
         <v>0.24513888888888888</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>0.26180555555555557</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>1.6666666666666691E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <f t="shared" si="1"/>
         <v>0.26180555555555557</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>0.2673611111111111</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>5.5555555555555358E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <f t="shared" si="1"/>
         <v>0.2673611111111111</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>0.29097222222222224</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>2.3611111111111138E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <f t="shared" si="1"/>
         <v>0.29097222222222224</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>0.3263888888888889</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>3.5416666666666652E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <f t="shared" si="1"/>
         <v>0.3263888888888889</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>0.3611111111111111</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <f t="shared" si="1"/>
         <v>0.3611111111111111</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>0.38194444444444442</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <f t="shared" si="1"/>
         <v>0.38194444444444442</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>0.3923611111111111</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>1.0416666666666685E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <f t="shared" si="1"/>
         <v>0.3923611111111111</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>0.45347222222222222</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>6.1111111111111116E-2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
